--- a/data/cpd_fcv.xlsx
+++ b/data/cpd_fcv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.7796160276475316</v>
+        <v>0.8044364763692744</v>
       </c>
       <c r="D2">
-        <v>0.651275276572132</v>
+        <v>0.02884474942856064</v>
       </c>
       <c r="E2">
-        <v>0.747902406517806</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.6570731046050187</v>
+      </c>
+      <c r="F2">
+        <v>0.02321794113734018</v>
+      </c>
+      <c r="G2">
+        <v>0.7621339652781944</v>
+      </c>
+      <c r="H2">
+        <v>0.02597857523581242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.773976597834702</v>
+        <v>0.7969884900324209</v>
       </c>
       <c r="D3">
-        <v>0.623983579816578</v>
+        <v>0.02544947822617298</v>
       </c>
       <c r="E3">
-        <v>0.758141376296761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.641120051727692</v>
+      </c>
+      <c r="F3">
+        <v>0.02214879882263832</v>
+      </c>
+      <c r="G3">
+        <v>0.7606103569174147</v>
+      </c>
+      <c r="H3">
+        <v>0.01390606589081266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.7091476613318691</v>
+        <v>0.7061985748121039</v>
       </c>
       <c r="D4">
-        <v>0.6083810688243203</v>
+        <v>0.03043559148890335</v>
       </c>
       <c r="E4">
-        <v>0.707654151434529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.6011759375754986</v>
+      </c>
+      <c r="F4">
+        <v>0.02100305676576139</v>
+      </c>
+      <c r="G4">
+        <v>0.7160673259084309</v>
+      </c>
+      <c r="H4">
+        <v>0.01338062176378381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.7223923195740579</v>
+        <v>0.7164975682661074</v>
       </c>
       <c r="D5">
-        <v>0.6173361189416643</v>
+        <v>0.02956912790389477</v>
       </c>
       <c r="E5">
-        <v>0.6574523602096494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.6007505677164396</v>
+      </c>
+      <c r="F5">
+        <v>0.041301098137069</v>
+      </c>
+      <c r="G5">
+        <v>0.6692596264136759</v>
+      </c>
+      <c r="H5">
+        <v>0.02632842197611493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.7164373504506416</v>
+        <v>0.7164730082267388</v>
       </c>
       <c r="D6">
-        <v>0.592060583786984</v>
+        <v>0.02219425402118157</v>
       </c>
       <c r="E6">
-        <v>0.7148910216933554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.6039931730841751</v>
+      </c>
+      <c r="F6">
+        <v>0.02940696939236704</v>
+      </c>
+      <c r="G6">
+        <v>0.7306229026331386</v>
+      </c>
+      <c r="H6">
+        <v>0.0198524944118832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.6500810732224794</v>
+        <v>0.8012535343613688</v>
       </c>
       <c r="D7">
-        <v>0.5111593059076118</v>
+        <v>0.02954457540184793</v>
       </c>
       <c r="E7">
-        <v>0.618592498384386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.6790708278274533</v>
+      </c>
+      <c r="F7">
+        <v>0.02042232892507847</v>
+      </c>
+      <c r="G7">
+        <v>0.7725136802625545</v>
+      </c>
+      <c r="H7">
+        <v>0.02149705229019658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.590400894662007</v>
+        <v>0.8004103320237622</v>
       </c>
       <c r="D8">
-        <v>0.5074632301570488</v>
+        <v>0.02665482451774143</v>
       </c>
       <c r="E8">
-        <v>0.6622779240120706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.7853532956115734</v>
-      </c>
-      <c r="D9">
-        <v>0.6968348041230275</v>
-      </c>
-      <c r="E9">
-        <v>0.7787845410379449</v>
+        <v>0.6999599790278721</v>
+      </c>
+      <c r="F8">
+        <v>0.02229273530043684</v>
+      </c>
+      <c r="G8">
+        <v>0.7867708782270366</v>
+      </c>
+      <c r="H8">
+        <v>0.02023451298340065</v>
       </c>
     </row>
   </sheetData>
